--- a/analysis/results/Q3/models/supplements_models_terminal_ileum.xlsx
+++ b/analysis/results/Q3/models/supplements_models_terminal_ileum.xlsx
@@ -9,16 +9,12 @@
     <sheet name="knn_model" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="rf_model" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="gbm_model" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="enet_model_ra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="knn_model_ra" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="rf_model_ra" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="gbm_model_ra" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -87,45 +83,6 @@
   </si>
   <si>
     <t xml:space="preserve">n.minobsinnode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alpha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lambda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auc_czech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auc_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">accuracy_czech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">accuracy_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.571120689655172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.562790697674419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.580578512396694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.600215517241379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.59051724137931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.999281609195402</t>
   </si>
 </sst>
 </file>
@@ -532,25 +489,25 @@
         <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>0.656626414266828</v>
+        <v>0.646682882464846</v>
       </c>
       <c r="E3" t="n">
-        <v>0.488602941176471</v>
+        <v>0.412748579545455</v>
       </c>
       <c r="F3" t="n">
-        <v>0.821794871794872</v>
+        <v>0.856893382352941</v>
       </c>
       <c r="G3" t="n">
         <v>0.844660194174757</v>
       </c>
       <c r="H3" t="n">
-        <v>0.851187508702753</v>
+        <v>0.84448593721741</v>
       </c>
       <c r="I3" t="n">
-        <v>0.756811846689895</v>
+        <v>0.757145782145782</v>
       </c>
       <c r="J3" t="n">
-        <v>0.931230158730159</v>
+        <v>0.925960365853659</v>
       </c>
     </row>
   </sheetData>
@@ -660,25 +617,25 @@
         <v>18</v>
       </c>
       <c r="F3" t="n">
-        <v>0.697736548326419</v>
+        <v>0.698351742938989</v>
       </c>
       <c r="G3" t="n">
-        <v>0.545606617647059</v>
+        <v>0.474436437546194</v>
       </c>
       <c r="H3" t="n">
-        <v>0.830580357142857</v>
+        <v>0.888409090909091</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.822845884111128</v>
+        <v>0.820532880521587</v>
       </c>
       <c r="K3" t="n">
-        <v>0.751495535714286</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="L3" t="n">
-        <v>0.892387820512821</v>
+        <v>0.915535714285714</v>
       </c>
     </row>
   </sheetData>
@@ -797,555 +754,25 @@
         <v>18</v>
       </c>
       <c r="G3" t="n">
-        <v>0.635175141656117</v>
+        <v>0.638153328559101</v>
       </c>
       <c r="H3" t="n">
-        <v>0.464971590909091</v>
+        <v>0.415965869106263</v>
       </c>
       <c r="I3" t="n">
-        <v>0.888371848739496</v>
+        <v>0.858141891891892</v>
       </c>
       <c r="J3" t="n">
         <v>0.990291262135922</v>
       </c>
       <c r="K3" t="n">
-        <v>0.838964951952757</v>
+        <v>0.810718017362159</v>
       </c>
       <c r="L3" t="n">
-        <v>0.745836236933798</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="M3" t="n">
-        <v>0.935850694444444</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.175316510188767</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.600121667121438</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.30625</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.769044117647059</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.844660194174757</v>
-      </c>
-      <c r="K2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.823798850612875</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.684895470383275</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.931230158730159</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.174801089100893</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.551782344313302</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.442938311688312</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.66123647734956</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.844660194174757</v>
-      </c>
-      <c r="K3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.831705122269147</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.684895470383275</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.894798534798535</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="n">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.348831903149384</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.265182291666667</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.474285714285714</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.844660194174757</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.848409730924975</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.756811846689895</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.909702380952381</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="n">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.458361378012584</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.303571200510856</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.548543552036199</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.844660194174757</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.853751611266855</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.756811846689895</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.933867521367521</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.562134765280704</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.298167335115865</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.7609375</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.844660194174757</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.848126611266855</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.756811846689895</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.933867521367521</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.636292671969813</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.460377673796792</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.796305256869773</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.844660194174757</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.842640500155744</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.756811846689895</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.894798534798535</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="n">
-        <v>200</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.571990746417969</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.356563228438228</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.757647058823529</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.82228633535036</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.749285714285714</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.888174603174603</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="n">
-        <v>100</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.508248952195412</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.29317855276907</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.758670634920635</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.961165048543689</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.80029409367824</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.696411149825784</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.84375</v>
+        <v>0.911764705882353</v>
       </c>
     </row>
   </sheetData>
